--- a/Excel Files/Speed Weight Lookup.xlsx
+++ b/Excel Files/Speed Weight Lookup.xlsx
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
